--- a/REGULAR/CTO/DE OCAMPO, MARISSA.xlsx
+++ b/REGULAR/CTO/DE OCAMPO, MARISSA.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="412">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1272,6 +1272,12 @@
   </si>
   <si>
     <t>8/31 - 9/1/2023</t>
+  </si>
+  <si>
+    <t>10/2,3/2023</t>
+  </si>
+  <si>
+    <t>12/6,7/2023</t>
   </si>
 </sst>
 </file>
@@ -2165,7 +2171,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2214,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2272,7 +2278,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2338,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2398,7 +2404,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,7 +2467,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2559,7 +2565,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,7 +2624,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2683,7 +2689,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2726,7 +2732,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2807,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2987,7 +2993,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3053,7 +3059,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3111,7 +3117,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3177,7 +3183,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3233,7 +3239,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3308,7 +3314,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3351,7 +3357,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3417,7 +3423,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3473,7 +3479,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3571,7 +3577,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3634,7 +3640,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3700,7 +3706,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K595" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K598" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4078,12 +4084,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K595"/>
+  <dimension ref="A2:K598"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2520" topLeftCell="A581" activePane="bottomLeft"/>
+      <pane ySplit="2520" topLeftCell="A578" activePane="bottomLeft"/>
       <selection activeCell="H3" sqref="H3"/>
-      <selection pane="bottomLeft" activeCell="K594" sqref="K594"/>
+      <selection pane="bottomLeft" activeCell="I596" sqref="I596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4244,7 +4250,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>86.487999999999857</v>
+        <v>88.237999999999857</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4254,7 +4260,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>123.50300000000001</v>
+        <v>124.25300000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17112,13 +17118,15 @@
       <c r="B593" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C593" s="13"/>
+      <c r="C593" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D593" s="39"/>
       <c r="E593" s="9"/>
       <c r="F593" s="20"/>
-      <c r="G593" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G593" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H593" s="39">
         <v>1</v>
@@ -17155,19 +17163,93 @@
       <c r="A595" s="41">
         <v>45200</v>
       </c>
-      <c r="B595" s="15"/>
-      <c r="C595" s="42"/>
+      <c r="B595" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C595" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D595" s="43"/>
       <c r="E595" s="51"/>
       <c r="F595" s="15"/>
-      <c r="G595" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H595" s="43"/>
+      <c r="G595" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H595" s="43">
+        <v>2</v>
+      </c>
       <c r="I595" s="51"/>
       <c r="J595" s="12"/>
-      <c r="K595" s="15"/>
+      <c r="K595" s="15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A596" s="40"/>
+      <c r="B596" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C596" s="13"/>
+      <c r="D596" s="39"/>
+      <c r="E596" s="9"/>
+      <c r="F596" s="20"/>
+      <c r="G596" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H596" s="39">
+        <v>1</v>
+      </c>
+      <c r="I596" s="9"/>
+      <c r="J596" s="11"/>
+      <c r="K596" s="56">
+        <v>45229</v>
+      </c>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A597" s="41">
+        <v>45231</v>
+      </c>
+      <c r="B597" s="20"/>
+      <c r="C597" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D597" s="39"/>
+      <c r="E597" s="9"/>
+      <c r="F597" s="20"/>
+      <c r="G597" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H597" s="39"/>
+      <c r="I597" s="9"/>
+      <c r="J597" s="11"/>
+      <c r="K597" s="20"/>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A598" s="41">
+        <v>45261</v>
+      </c>
+      <c r="B598" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C598" s="13"/>
+      <c r="D598" s="39">
+        <v>2</v>
+      </c>
+      <c r="E598" s="9"/>
+      <c r="F598" s="20"/>
+      <c r="G598" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H598" s="39"/>
+      <c r="I598" s="9"/>
+      <c r="J598" s="11"/>
+      <c r="K598" s="20" t="s">
+        <v>411</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
